--- a/0_0_Data/2_Processed_Data/1_rt_component_series/yoy_rt_data_EXPORT.xlsx
+++ b/0_0_Data/2_Processed_Data/1_rt_component_series/yoy_rt_data_EXPORT.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Datenstand</t>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -2285,9 +2285,6 @@
       <c r="A17" s="2">
         <v>44196</v>
       </c>
-      <c r="AH17">
-        <v>-10.63729385478103</v>
-      </c>
       <c r="AI17">
         <v>-10.30863472731864</v>
       </c>
@@ -2350,9 +2347,6 @@
       <c r="A18" s="2">
         <v>44561</v>
       </c>
-      <c r="AL18">
-        <v>6.983365034008404</v>
-      </c>
       <c r="AM18">
         <v>9.699702585983673</v>
       </c>
@@ -2403,9 +2397,6 @@
       <c r="A19" s="2">
         <v>44926</v>
       </c>
-      <c r="AP19">
-        <v>3.859931785049553</v>
-      </c>
       <c r="AQ19">
         <v>3.861873299253471</v>
       </c>
@@ -2444,9 +2435,6 @@
       <c r="A20" s="2">
         <v>45291</v>
       </c>
-      <c r="AT20">
-        <v>-1.545150469270784</v>
-      </c>
       <c r="AU20">
         <v>-1.659183818823917</v>
       </c>
@@ -2472,9 +2460,6 @@
     <row r="21" spans="1:53">
       <c r="A21" s="2">
         <v>45657</v>
-      </c>
-      <c r="AX21">
-        <v>-0.533705303377674</v>
       </c>
       <c r="AY21">
         <v>-1.108126682036992</v>

--- a/0_0_Data/2_Processed_Data/1_rt_component_series/yoy_rt_data_EXPORT.xlsx
+++ b/0_0_Data/2_Processed_Data/1_rt_component_series/yoy_rt_data_EXPORT.xlsx
@@ -380,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,13 +546,16 @@
       <c r="BA1" s="2">
         <v>45891</v>
       </c>
+      <c r="BB1" s="2">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="2">
         <v>38717</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="2">
         <v>39082</v>
       </c>
@@ -712,8 +715,11 @@
       <c r="BA3">
         <v>12.61296106816223</v>
       </c>
+      <c r="BB3">
+        <v>12.61296106816223</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="2">
         <v>39447</v>
       </c>
@@ -870,8 +876,11 @@
       <c r="BA4">
         <v>7.580950486292726</v>
       </c>
+      <c r="BB4">
+        <v>7.580950486292726</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="2">
         <v>39813</v>
       </c>
@@ -1022,8 +1031,11 @@
       <c r="BA5">
         <v>1.95970226845037</v>
       </c>
+      <c r="BB5">
+        <v>1.95970226845037</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="2">
         <v>40178</v>
       </c>
@@ -1168,8 +1180,11 @@
       <c r="BA6">
         <v>-14.25451664899614</v>
       </c>
+      <c r="BB6">
+        <v>-14.25451664899614</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="2">
         <v>40543</v>
       </c>
@@ -1308,8 +1323,11 @@
       <c r="BA7">
         <v>12.55305128697035</v>
       </c>
+      <c r="BB7">
+        <v>12.55305128697035</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="2">
         <v>40908</v>
       </c>
@@ -1442,8 +1460,11 @@
       <c r="BA8">
         <v>7.357213979194088</v>
       </c>
+      <c r="BB8">
+        <v>7.357213979194088</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="2">
         <v>41274</v>
       </c>
@@ -1570,8 +1591,11 @@
       <c r="BA9">
         <v>3.700556581965486</v>
       </c>
+      <c r="BB9">
+        <v>3.700556581965486</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="2">
         <v>41639</v>
       </c>
@@ -1692,8 +1716,11 @@
       <c r="BA10">
         <v>1.782305852844934</v>
       </c>
+      <c r="BB10">
+        <v>1.782305852844934</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="2">
         <v>42004</v>
       </c>
@@ -1808,8 +1835,11 @@
       <c r="BA11">
         <v>3.737257555825546</v>
       </c>
+      <c r="BB11">
+        <v>3.737257555825546</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="2">
         <v>42369</v>
       </c>
@@ -1918,8 +1948,11 @@
       <c r="BA12">
         <v>3.964760230688924</v>
       </c>
+      <c r="BB12">
+        <v>3.964760230688924</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="2">
         <v>42735</v>
       </c>
@@ -2022,8 +2055,11 @@
       <c r="BA13">
         <v>2.493339548828422</v>
       </c>
+      <c r="BB13">
+        <v>2.493339548828422</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="2">
         <v>43100</v>
       </c>
@@ -2120,8 +2156,11 @@
       <c r="BA14">
         <v>5.486155394163439</v>
       </c>
+      <c r="BB14">
+        <v>5.486155394163439</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="2">
         <v>43465</v>
       </c>
@@ -2206,8 +2245,11 @@
       <c r="BA15">
         <v>3.014885150673741</v>
       </c>
+      <c r="BB15">
+        <v>3.014885150673741</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="2">
         <v>43830</v>
       </c>
@@ -2280,8 +2322,11 @@
       <c r="BA16">
         <v>1.129277925826222</v>
       </c>
+      <c r="BB16">
+        <v>1.129277925826222</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="2">
         <v>44196</v>
       </c>
@@ -2342,8 +2387,11 @@
       <c r="BA17">
         <v>-10.31536096668655</v>
       </c>
+      <c r="BB17">
+        <v>-10.31536096668655</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="2">
         <v>44561</v>
       </c>
@@ -2392,8 +2440,11 @@
       <c r="BA18">
         <v>9.403346917149102</v>
       </c>
+      <c r="BB18">
+        <v>9.403346917149102</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="2">
         <v>44926</v>
       </c>
@@ -2430,8 +2481,11 @@
       <c r="BA19">
         <v>4.182544744307926</v>
       </c>
+      <c r="BB19">
+        <v>4.182544744307926</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="2">
         <v>45291</v>
       </c>
@@ -2456,8 +2510,11 @@
       <c r="BA20">
         <v>-0.7959876087558437</v>
       </c>
+      <c r="BB20">
+        <v>-0.7959876087558437</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="2">
         <v>45657</v>
       </c>
@@ -2470,8 +2527,11 @@
       <c r="BA21">
         <v>-1.946293963933887</v>
       </c>
+      <c r="BB21">
+        <v>-1.946293963933887</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="2">
         <v>46022</v>
       </c>
